--- a/Facebook_User_Data.xlsx
+++ b/Facebook_User_Data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\Innovation Challenge\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13170" windowHeight="6285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13180" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="AF" sheetId="1" r:id="rId1"/>
@@ -17,18 +12,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="457">
   <si>
     <t>Will</t>
   </si>
@@ -1324,6 +1319,81 @@
   </si>
   <si>
     <t>987531137948604</t>
+  </si>
+  <si>
+    <t>St. Paul, Minnesota</t>
+  </si>
+  <si>
+    <t>Venango County, Pennsylvania</t>
+  </si>
+  <si>
+    <t>Hampton Roads, Virginia</t>
+  </si>
+  <si>
+    <t>Greenwood, Indiana</t>
+  </si>
+  <si>
+    <t>Los Angeles, California</t>
+  </si>
+  <si>
+    <t>Washington, Kansas</t>
+  </si>
+  <si>
+    <t>Savannah, Georgia</t>
+  </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>Irvine, California</t>
+  </si>
+  <si>
+    <t>Kathleen, Georgia</t>
+  </si>
+  <si>
+    <t>San Antonia, Texas</t>
+  </si>
+  <si>
+    <t>Westfield, Indiana</t>
+  </si>
+  <si>
+    <t>Parker, Colorado</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Milwaukee, Wisconsin</t>
+  </si>
+  <si>
+    <t>Fullerton, California</t>
+  </si>
+  <si>
+    <t>Moorpark, California</t>
+  </si>
+  <si>
+    <t>Key West, Florida</t>
+  </si>
+  <si>
+    <t>east asian</t>
+  </si>
+  <si>
+    <t>south asian</t>
+  </si>
+  <si>
+    <t>middle eastern</t>
+  </si>
+  <si>
+    <t>Detroit, Illinois</t>
+  </si>
+  <si>
+    <t>Summit, New Jersey</t>
+  </si>
+  <si>
+    <t>La Vernia, Texas</t>
+  </si>
+  <si>
+    <t>Downey, California</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +1984,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2006,6 +2076,134 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2049,7 +2247,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="219">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2123,6 +2321,70 @@
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -2131,6 +2393,70 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2461,7 +2787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2472,20 +2798,20 @@
   <dimension ref="A1:G572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13" thickBot="1">
       <c r="B1" s="24" t="s">
         <v>14</v>
       </c>
@@ -2505,280 +2831,550 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13" thickBot="1">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F2" s="5">
+        <v>28</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="B3" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="F3" s="8">
+        <v>29</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="F4" s="8">
+        <v>27</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="F5" s="21">
+        <v>34</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="B6" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="F6" s="21">
+        <v>33</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="F7" s="21">
+        <v>35</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="B8" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="F8" s="21">
+        <v>28</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="B9" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="F9" s="21">
+        <v>31</v>
+      </c>
+      <c r="G9" s="9">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="F10" s="21">
+        <v>32</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="B11" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="F11" s="21">
+        <v>33</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="B12" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="F12" s="21">
+        <v>46</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="B13" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="F13" s="21">
+        <v>43</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="B14" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="F14" s="21">
+        <v>43</v>
+      </c>
+      <c r="G14" s="9">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="B15" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="F15" s="21">
+        <v>30</v>
+      </c>
+      <c r="G15" s="9">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="B16" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="F16" s="21">
+        <v>32</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="B17" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="F17" s="21">
+        <v>38</v>
+      </c>
+      <c r="G17" s="9">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="B18" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="F18" s="21">
+        <v>33</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="B19" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="F19" s="21">
+        <v>60</v>
+      </c>
+      <c r="G19" s="9">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="B20" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="F20" s="21">
+        <v>46</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="B21" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="F21" s="21">
+        <v>40</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="B22" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="F22" s="21">
+        <v>42</v>
+      </c>
+      <c r="G22" s="9">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="B23" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="F23" s="21">
+        <v>45</v>
+      </c>
+      <c r="G23" s="9">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="B24" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="F24" s="21">
+        <v>50</v>
+      </c>
+      <c r="G24" s="9">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="B25" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="F25" s="21">
+        <v>68</v>
+      </c>
+      <c r="G25" s="9">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="B26" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="F26" s="21">
+        <v>45</v>
+      </c>
+      <c r="G26" s="9">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="B27" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="F27" s="21">
+        <v>52</v>
+      </c>
+      <c r="G27" s="9">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="B28" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="F28" s="21">
+        <v>29</v>
+      </c>
+      <c r="G28" s="9">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
@@ -2791,7 +3387,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="B30" s="30" t="s">
         <v>220</v>
       </c>
@@ -2801,7 +3397,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="B31" s="30" t="s">
         <v>221</v>
       </c>
@@ -2811,7 +3407,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="B32" s="30" t="s">
         <v>222</v>
       </c>
@@ -2821,7 +3417,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7">
       <c r="B33" s="30" t="s">
         <v>223</v>
       </c>
@@ -2831,7 +3427,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7">
       <c r="B34" s="30" t="s">
         <v>224</v>
       </c>
@@ -2841,7 +3437,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7">
       <c r="B35" s="30" t="s">
         <v>225</v>
       </c>
@@ -2851,7 +3447,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7">
       <c r="B36" s="30" t="s">
         <v>226</v>
       </c>
@@ -2861,7 +3457,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7">
       <c r="B37" s="30" t="s">
         <v>227</v>
       </c>
@@ -2871,7 +3467,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7">
       <c r="B38" s="30" t="s">
         <v>228</v>
       </c>
@@ -2881,7 +3477,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7">
       <c r="B39" s="30" t="s">
         <v>229</v>
       </c>
@@ -2891,7 +3487,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7">
       <c r="B40" s="30" t="s">
         <v>230</v>
       </c>
@@ -2901,7 +3497,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7">
       <c r="B41" s="30" t="s">
         <v>231</v>
       </c>
@@ -2911,7 +3507,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7">
       <c r="B42" s="30" t="s">
         <v>232</v>
       </c>
@@ -2921,7 +3517,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7">
       <c r="B43" s="30" t="s">
         <v>233</v>
       </c>
@@ -2931,7 +3527,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7">
       <c r="B44" s="30" t="s">
         <v>234</v>
       </c>
@@ -2941,7 +3537,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7">
       <c r="B45" s="30" t="s">
         <v>235</v>
       </c>
@@ -2951,7 +3547,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7">
       <c r="B46" s="30" t="s">
         <v>236</v>
       </c>
@@ -2961,7 +3557,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7">
       <c r="B47" s="30" t="s">
         <v>237</v>
       </c>
@@ -2971,7 +3567,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7">
       <c r="B48" s="30" t="s">
         <v>238</v>
       </c>
@@ -2981,7 +3577,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="B49" s="30" t="s">
         <v>239</v>
       </c>
@@ -2991,7 +3587,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="B50" s="30" t="s">
         <v>240</v>
       </c>
@@ -3001,7 +3597,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="B51" s="30" t="s">
         <v>241</v>
       </c>
@@ -3011,7 +3607,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="B52" s="30" t="s">
         <v>242</v>
       </c>
@@ -3021,7 +3617,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="B53" s="30" t="s">
         <v>243</v>
       </c>
@@ -3031,7 +3627,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="B54" s="30" t="s">
         <v>244</v>
       </c>
@@ -3041,7 +3637,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="B55" s="30" t="s">
         <v>245</v>
       </c>
@@ -3051,7 +3647,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="B56" s="30" t="s">
         <v>246</v>
       </c>
@@ -3061,7 +3657,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -3074,7 +3670,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="B58" s="30" t="s">
         <v>248</v>
       </c>
@@ -3084,7 +3680,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="B59" s="30" t="s">
         <v>249</v>
       </c>
@@ -3094,7 +3690,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="B60" s="30" t="s">
         <v>250</v>
       </c>
@@ -3104,7 +3700,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="B61" s="30" t="s">
         <v>251</v>
       </c>
@@ -3114,7 +3710,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="B62" s="30" t="s">
         <v>252</v>
       </c>
@@ -3124,7 +3720,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="B63" s="30" t="s">
         <v>253</v>
       </c>
@@ -3134,7 +3730,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="B64" s="30" t="s">
         <v>254</v>
       </c>
@@ -3144,7 +3740,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7">
       <c r="B65" s="30" t="s">
         <v>255</v>
       </c>
@@ -3154,7 +3750,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7">
       <c r="B66" s="30" t="s">
         <v>256</v>
       </c>
@@ -3164,7 +3760,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7">
       <c r="B67" s="30" t="s">
         <v>257</v>
       </c>
@@ -3174,7 +3770,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7">
       <c r="B68" s="30" t="s">
         <v>258</v>
       </c>
@@ -3184,7 +3780,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7">
       <c r="B69" s="30" t="s">
         <v>259</v>
       </c>
@@ -3194,7 +3790,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7">
       <c r="B70" s="30" t="s">
         <v>260</v>
       </c>
@@ -3204,7 +3800,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7">
       <c r="B71" s="30" t="s">
         <v>261</v>
       </c>
@@ -3214,7 +3810,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7">
       <c r="B72" s="30" t="s">
         <v>262</v>
       </c>
@@ -3224,7 +3820,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7">
       <c r="B73" s="30" t="s">
         <v>263</v>
       </c>
@@ -3234,7 +3830,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7">
       <c r="B74" s="30" t="s">
         <v>264</v>
       </c>
@@ -3244,7 +3840,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7">
       <c r="B75" s="30" t="s">
         <v>265</v>
       </c>
@@ -3254,7 +3850,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7">
       <c r="B76" s="30" t="s">
         <v>266</v>
       </c>
@@ -3264,7 +3860,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7">
       <c r="B77" s="30" t="s">
         <v>267</v>
       </c>
@@ -3274,7 +3870,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7">
       <c r="B78" s="30" t="s">
         <v>268</v>
       </c>
@@ -3284,7 +3880,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7">
       <c r="B79" s="30" t="s">
         <v>269</v>
       </c>
@@ -3294,7 +3890,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7">
       <c r="B80" s="30" t="s">
         <v>270</v>
       </c>
@@ -3304,7 +3900,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="B81" s="30" t="s">
         <v>271</v>
       </c>
@@ -3314,7 +3910,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="B82" s="30" t="s">
         <v>272</v>
       </c>
@@ -3324,7 +3920,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="B83" s="30" t="s">
         <v>273</v>
       </c>
@@ -3334,7 +3930,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="3" t="s">
         <v>3</v>
       </c>
@@ -3347,7 +3943,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="B85" s="30" t="s">
         <v>275</v>
       </c>
@@ -3357,7 +3953,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="B86" s="30" t="s">
         <v>276</v>
       </c>
@@ -3367,7 +3963,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="B87" s="30" t="s">
         <v>277</v>
       </c>
@@ -3377,7 +3973,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="B88" s="30" t="s">
         <v>278</v>
       </c>
@@ -3387,7 +3983,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="B89" s="30" t="s">
         <v>279</v>
       </c>
@@ -3397,7 +3993,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="B90" s="30" t="s">
         <v>280</v>
       </c>
@@ -3407,7 +4003,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="B91" s="30" t="s">
         <v>281</v>
       </c>
@@ -3417,7 +4013,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="B92" s="30" t="s">
         <v>282</v>
       </c>
@@ -3427,7 +4023,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="B93" s="30" t="s">
         <v>283</v>
       </c>
@@ -3437,7 +4033,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="B94" s="30" t="s">
         <v>284</v>
       </c>
@@ -3447,7 +4043,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="B95" s="30" t="s">
         <v>285</v>
       </c>
@@ -3457,7 +4053,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="B96" s="30" t="s">
         <v>286</v>
       </c>
@@ -3467,7 +4063,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="B97" s="30" t="s">
         <v>287</v>
       </c>
@@ -3477,7 +4073,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="B98" s="30" t="s">
         <v>288</v>
       </c>
@@ -3487,7 +4083,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="B99" s="30" t="s">
         <v>289</v>
       </c>
@@ -3497,7 +4093,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="B100" s="30" t="s">
         <v>290</v>
       </c>
@@ -3507,7 +4103,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="B101" s="30" t="s">
         <v>291</v>
       </c>
@@ -3517,7 +4113,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="B102" s="30" t="s">
         <v>292</v>
       </c>
@@ -3527,7 +4123,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="B103" s="30" t="s">
         <v>293</v>
       </c>
@@ -3537,7 +4133,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="B104" s="30" t="s">
         <v>294</v>
       </c>
@@ -3547,7 +4143,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="B105" s="30" t="s">
         <v>295</v>
       </c>
@@ -3557,7 +4153,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="B106" s="30" t="s">
         <v>296</v>
       </c>
@@ -3567,7 +4163,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="B107" s="30" t="s">
         <v>297</v>
       </c>
@@ -3577,7 +4173,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="B108" s="30" t="s">
         <v>298</v>
       </c>
@@ -3587,7 +4183,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="B109" s="30" t="s">
         <v>299</v>
       </c>
@@ -3597,7 +4193,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="1"/>
       <c r="B110" s="30" t="s">
         <v>300</v>
@@ -3608,7 +4204,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="1"/>
       <c r="B111" s="30" t="s">
         <v>301</v>
@@ -3619,7 +4215,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="16" t="s">
         <v>4</v>
       </c>
@@ -3642,7 +4238,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="1"/>
       <c r="B113" s="30" t="s">
         <v>303</v>
@@ -3653,7 +4249,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="1"/>
       <c r="B114" s="30" t="s">
         <v>304</v>
@@ -3664,7 +4260,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="1"/>
       <c r="B115" s="30" t="s">
         <v>305</v>
@@ -3675,7 +4271,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="1"/>
       <c r="B116" s="30" t="s">
         <v>306</v>
@@ -3686,7 +4282,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="1"/>
       <c r="B117" s="30" t="s">
         <v>307</v>
@@ -3697,7 +4293,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="9"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="1"/>
       <c r="B118" s="30" t="s">
         <v>308</v>
@@ -3708,7 +4304,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="1"/>
       <c r="B119" s="30" t="s">
         <v>309</v>
@@ -3727,7 +4323,7 @@
       </c>
       <c r="G119" s="9"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="1"/>
       <c r="B120" s="30" t="s">
         <v>310</v>
@@ -3738,7 +4334,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="1"/>
       <c r="B121" s="30" t="s">
         <v>311</v>
@@ -3749,7 +4345,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="9"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="1"/>
       <c r="B122" s="30" t="s">
         <v>312</v>
@@ -3760,7 +4356,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="1"/>
       <c r="B123" s="30" t="s">
         <v>313</v>
@@ -3771,7 +4367,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="9"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="1"/>
       <c r="B124" s="30" t="s">
         <v>314</v>
@@ -3782,7 +4378,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="1"/>
       <c r="B125" s="30" t="s">
         <v>315</v>
@@ -3793,7 +4389,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="9"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="1"/>
       <c r="B126" s="30" t="s">
         <v>316</v>
@@ -3804,7 +4400,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="1"/>
       <c r="B127" s="30" t="s">
         <v>317</v>
@@ -3815,7 +4411,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="9"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="1"/>
       <c r="B128" s="30" t="s">
         <v>318</v>
@@ -3826,7 +4422,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="9"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="1"/>
       <c r="B129" s="30" t="s">
         <v>319</v>
@@ -3837,7 +4433,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="9"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="1"/>
       <c r="B130" s="30" t="s">
         <v>320</v>
@@ -3848,7 +4444,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" s="1"/>
       <c r="B131" s="30" t="s">
         <v>321</v>
@@ -3859,7 +4455,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="9"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="1"/>
       <c r="B132" s="30" t="s">
         <v>322</v>
@@ -3870,7 +4466,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="1"/>
       <c r="B133" s="30" t="s">
         <v>323</v>
@@ -3881,7 +4477,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="9"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" s="1"/>
       <c r="B134" s="30" t="s">
         <v>324</v>
@@ -3892,7 +4488,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="9"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" s="1"/>
       <c r="B135" s="30" t="s">
         <v>325</v>
@@ -3903,7 +4499,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="9"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" s="1"/>
       <c r="B136" s="30" t="s">
         <v>326</v>
@@ -3914,7 +4510,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="9"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" s="1"/>
       <c r="B137" s="30" t="s">
         <v>327</v>
@@ -3925,7 +4521,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="9"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" s="1"/>
       <c r="B138" s="30" t="s">
         <v>328</v>
@@ -3936,7 +4532,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="9"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" s="16" t="s">
         <v>5</v>
       </c>
@@ -3949,7 +4545,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="9"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" s="1"/>
       <c r="B140" s="30" t="s">
         <v>330</v>
@@ -3960,7 +4556,7 @@
       <c r="F140" s="8"/>
       <c r="G140" s="9"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" s="1"/>
       <c r="B141" s="30" t="s">
         <v>331</v>
@@ -3971,7 +4567,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="9"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" s="1"/>
       <c r="B142" s="30" t="s">
         <v>332</v>
@@ -3982,7 +4578,7 @@
       <c r="F142" s="8"/>
       <c r="G142" s="9"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" s="1"/>
       <c r="B143" s="30" t="s">
         <v>333</v>
@@ -3993,7 +4589,7 @@
       <c r="F143" s="8"/>
       <c r="G143" s="9"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" s="1"/>
       <c r="B144" s="30" t="s">
         <v>334</v>
@@ -4004,7 +4600,7 @@
       <c r="F144" s="8"/>
       <c r="G144" s="9"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" s="1"/>
       <c r="B145" s="30" t="s">
         <v>335</v>
@@ -4015,7 +4611,7 @@
       <c r="F145" s="8"/>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" s="1"/>
       <c r="B146" s="30" t="s">
         <v>336</v>
@@ -4026,7 +4622,7 @@
       <c r="F146" s="8"/>
       <c r="G146" s="9"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" s="1"/>
       <c r="B147" s="30" t="s">
         <v>337</v>
@@ -4037,7 +4633,7 @@
       <c r="F147" s="8"/>
       <c r="G147" s="9"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" s="1"/>
       <c r="B148" s="30" t="s">
         <v>338</v>
@@ -4048,7 +4644,7 @@
       <c r="F148" s="8"/>
       <c r="G148" s="9"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149" s="1"/>
       <c r="B149" s="30" t="s">
         <v>339</v>
@@ -4059,7 +4655,7 @@
       <c r="F149" s="8"/>
       <c r="G149" s="9"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" s="1"/>
       <c r="B150" s="30" t="s">
         <v>340</v>
@@ -4070,7 +4666,7 @@
       <c r="F150" s="8"/>
       <c r="G150" s="9"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" s="1"/>
       <c r="B151" s="30" t="s">
         <v>341</v>
@@ -4081,7 +4677,7 @@
       <c r="F151" s="8"/>
       <c r="G151" s="9"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" s="1"/>
       <c r="B152" s="30" t="s">
         <v>342</v>
@@ -4092,7 +4688,7 @@
       <c r="F152" s="8"/>
       <c r="G152" s="9"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" s="1"/>
       <c r="B153" s="30" t="s">
         <v>343</v>
@@ -4103,7 +4699,7 @@
       <c r="F153" s="8"/>
       <c r="G153" s="9"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" s="1"/>
       <c r="B154" s="30" t="s">
         <v>344</v>
@@ -4114,7 +4710,7 @@
       <c r="F154" s="8"/>
       <c r="G154" s="9"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" s="1"/>
       <c r="B155" s="30" t="s">
         <v>345</v>
@@ -4125,7 +4721,7 @@
       <c r="F155" s="8"/>
       <c r="G155" s="9"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" s="1"/>
       <c r="B156" s="30" t="s">
         <v>346</v>
@@ -4136,7 +4732,7 @@
       <c r="F156" s="8"/>
       <c r="G156" s="9"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" s="1"/>
       <c r="B157" s="30" t="s">
         <v>347</v>
@@ -4147,7 +4743,7 @@
       <c r="F157" s="8"/>
       <c r="G157" s="9"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" s="1"/>
       <c r="B158" s="30" t="s">
         <v>348</v>
@@ -4158,7 +4754,7 @@
       <c r="F158" s="8"/>
       <c r="G158" s="9"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" s="1"/>
       <c r="B159" s="30" t="s">
         <v>349</v>
@@ -4169,7 +4765,7 @@
       <c r="F159" s="8"/>
       <c r="G159" s="9"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" s="1"/>
       <c r="B160" s="30" t="s">
         <v>350</v>
@@ -4180,7 +4776,7 @@
       <c r="F160" s="8"/>
       <c r="G160" s="9"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" s="1"/>
       <c r="B161" s="30" t="s">
         <v>351</v>
@@ -4191,7 +4787,7 @@
       <c r="F161" s="8"/>
       <c r="G161" s="9"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162" s="1"/>
       <c r="B162" s="30" t="s">
         <v>352</v>
@@ -4202,7 +4798,7 @@
       <c r="F162" s="8"/>
       <c r="G162" s="9"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" s="1"/>
       <c r="B163" s="30" t="s">
         <v>353</v>
@@ -4213,7 +4809,7 @@
       <c r="F163" s="8"/>
       <c r="G163" s="9"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" s="1"/>
       <c r="B164" s="30" t="s">
         <v>354</v>
@@ -4224,7 +4820,7 @@
       <c r="F164" s="8"/>
       <c r="G164" s="9"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165" s="1"/>
       <c r="B165" s="30" t="s">
         <v>355</v>
@@ -4235,7 +4831,7 @@
       <c r="F165" s="8"/>
       <c r="G165" s="9"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166" s="1"/>
       <c r="B166" s="30" t="s">
         <v>356</v>
@@ -4246,7 +4842,7 @@
       <c r="F166" s="8"/>
       <c r="G166" s="9"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7">
       <c r="A167" s="16" t="s">
         <v>6</v>
       </c>
@@ -4259,7 +4855,7 @@
       <c r="F167" s="8"/>
       <c r="G167" s="9"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="A168" s="1"/>
       <c r="B168" s="30" t="s">
         <v>358</v>
@@ -4270,7 +4866,7 @@
       <c r="F168" s="8"/>
       <c r="G168" s="9"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7">
       <c r="A169" s="1"/>
       <c r="B169" s="30" t="s">
         <v>359</v>
@@ -4281,7 +4877,7 @@
       <c r="F169" s="8"/>
       <c r="G169" s="9"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7">
       <c r="A170" s="1"/>
       <c r="B170" s="30" t="s">
         <v>360</v>
@@ -4292,7 +4888,7 @@
       <c r="F170" s="8"/>
       <c r="G170" s="9"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7">
       <c r="A171" s="1"/>
       <c r="B171" s="30" t="s">
         <v>361</v>
@@ -4303,7 +4899,7 @@
       <c r="F171" s="8"/>
       <c r="G171" s="9"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7">
       <c r="A172" s="1"/>
       <c r="B172" s="30" t="s">
         <v>362</v>
@@ -4314,7 +4910,7 @@
       <c r="F172" s="8"/>
       <c r="G172" s="9"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7">
       <c r="A173" s="1"/>
       <c r="B173" s="30" t="s">
         <v>363</v>
@@ -4325,7 +4921,7 @@
       <c r="F173" s="8"/>
       <c r="G173" s="9"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7">
       <c r="A174" s="1"/>
       <c r="B174" s="30" t="s">
         <v>364</v>
@@ -4336,7 +4932,7 @@
       <c r="F174" s="8"/>
       <c r="G174" s="9"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7">
       <c r="A175" s="1"/>
       <c r="B175" s="30" t="s">
         <v>365</v>
@@ -4347,7 +4943,7 @@
       <c r="F175" s="8"/>
       <c r="G175" s="9"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7">
       <c r="A176" s="1"/>
       <c r="B176" s="30" t="s">
         <v>366</v>
@@ -4358,7 +4954,7 @@
       <c r="F176" s="8"/>
       <c r="G176" s="9"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="A177" s="1"/>
       <c r="B177" s="30" t="s">
         <v>367</v>
@@ -4369,7 +4965,7 @@
       <c r="F177" s="8"/>
       <c r="G177" s="9"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7">
       <c r="A178" s="1"/>
       <c r="B178" s="30" t="s">
         <v>368</v>
@@ -4380,7 +4976,7 @@
       <c r="F178" s="8"/>
       <c r="G178" s="9"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7">
       <c r="A179" s="1"/>
       <c r="B179" s="30" t="s">
         <v>369</v>
@@ -4391,7 +4987,7 @@
       <c r="F179" s="8"/>
       <c r="G179" s="9"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7">
       <c r="A180" s="1"/>
       <c r="B180" s="30" t="s">
         <v>370</v>
@@ -4402,7 +4998,7 @@
       <c r="F180" s="8"/>
       <c r="G180" s="9"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181" s="1"/>
       <c r="B181" s="30" t="s">
         <v>371</v>
@@ -4413,7 +5009,7 @@
       <c r="F181" s="8"/>
       <c r="G181" s="9"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7">
       <c r="A182" s="1"/>
       <c r="B182" s="30" t="s">
         <v>372</v>
@@ -4424,7 +5020,7 @@
       <c r="F182" s="8"/>
       <c r="G182" s="9"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183" s="1"/>
       <c r="B183" s="30" t="s">
         <v>373</v>
@@ -4435,7 +5031,7 @@
       <c r="F183" s="8"/>
       <c r="G183" s="9"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184" s="1"/>
       <c r="B184" s="30" t="s">
         <v>374</v>
@@ -4446,7 +5042,7 @@
       <c r="F184" s="8"/>
       <c r="G184" s="9"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="A185" s="1"/>
       <c r="B185" s="30" t="s">
         <v>375</v>
@@ -4457,7 +5053,7 @@
       <c r="F185" s="8"/>
       <c r="G185" s="9"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7">
       <c r="A186" s="1"/>
       <c r="B186" s="30" t="s">
         <v>376</v>
@@ -4468,7 +5064,7 @@
       <c r="F186" s="8"/>
       <c r="G186" s="9"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187" s="1"/>
       <c r="B187" s="30" t="s">
         <v>377</v>
@@ -4479,7 +5075,7 @@
       <c r="F187" s="8"/>
       <c r="G187" s="9"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188" s="1"/>
       <c r="B188" s="30" t="s">
         <v>378</v>
@@ -4490,7 +5086,7 @@
       <c r="F188" s="8"/>
       <c r="G188" s="9"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7">
       <c r="A189" s="1"/>
       <c r="B189" s="30" t="s">
         <v>379</v>
@@ -4501,7 +5097,7 @@
       <c r="F189" s="8"/>
       <c r="G189" s="9"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190" s="1"/>
       <c r="B190" s="30" t="s">
         <v>380</v>
@@ -4512,7 +5108,7 @@
       <c r="F190" s="8"/>
       <c r="G190" s="9"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191" s="1"/>
       <c r="B191" s="30" t="s">
         <v>381</v>
@@ -4523,7 +5119,7 @@
       <c r="F191" s="8"/>
       <c r="G191" s="9"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7">
       <c r="A192" s="1"/>
       <c r="B192" s="30" t="s">
         <v>382</v>
@@ -4534,7 +5130,7 @@
       <c r="F192" s="8"/>
       <c r="G192" s="9"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7">
       <c r="A193" s="1"/>
       <c r="B193" s="30" t="s">
         <v>383</v>
@@ -4545,7 +5141,7 @@
       <c r="F193" s="8"/>
       <c r="G193" s="9"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7">
       <c r="A194" s="16" t="s">
         <v>7</v>
       </c>
@@ -4558,7 +5154,7 @@
       <c r="F194" s="8"/>
       <c r="G194" s="9"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7">
       <c r="A195" s="1"/>
       <c r="B195" s="30" t="s">
         <v>385</v>
@@ -4569,7 +5165,7 @@
       <c r="F195" s="8"/>
       <c r="G195" s="9"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7">
       <c r="A196" s="1"/>
       <c r="B196" s="30" t="s">
         <v>386</v>
@@ -4580,7 +5176,7 @@
       <c r="F196" s="8"/>
       <c r="G196" s="9"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7">
       <c r="A197" s="1"/>
       <c r="B197" s="30" t="s">
         <v>387</v>
@@ -4591,7 +5187,7 @@
       <c r="F197" s="8"/>
       <c r="G197" s="9"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7">
       <c r="A198" s="1"/>
       <c r="B198" s="30" t="s">
         <v>388</v>
@@ -4602,7 +5198,7 @@
       <c r="F198" s="8"/>
       <c r="G198" s="9"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7">
       <c r="A199" s="1"/>
       <c r="B199" s="30" t="s">
         <v>389</v>
@@ -4613,7 +5209,7 @@
       <c r="F199" s="8"/>
       <c r="G199" s="9"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7">
       <c r="A200" s="1"/>
       <c r="B200" s="30" t="s">
         <v>390</v>
@@ -4624,7 +5220,7 @@
       <c r="F200" s="8"/>
       <c r="G200" s="9"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7">
       <c r="A201" s="1"/>
       <c r="B201" s="30" t="s">
         <v>147</v>
@@ -4635,7 +5231,7 @@
       <c r="F201" s="8"/>
       <c r="G201" s="9"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7">
       <c r="A202" s="1"/>
       <c r="B202" s="30" t="s">
         <v>391</v>
@@ -4646,7 +5242,7 @@
       <c r="F202" s="8"/>
       <c r="G202" s="9"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7">
       <c r="A203" s="1"/>
       <c r="B203" s="30" t="s">
         <v>392</v>
@@ -4657,7 +5253,7 @@
       <c r="F203" s="8"/>
       <c r="G203" s="9"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7">
       <c r="A204" s="1"/>
       <c r="B204" s="30" t="s">
         <v>393</v>
@@ -4668,7 +5264,7 @@
       <c r="F204" s="8"/>
       <c r="G204" s="9"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7">
       <c r="A205" s="1"/>
       <c r="B205" s="30" t="s">
         <v>394</v>
@@ -4679,7 +5275,7 @@
       <c r="F205" s="8"/>
       <c r="G205" s="9"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7">
       <c r="A206" s="1"/>
       <c r="B206" s="30" t="s">
         <v>395</v>
@@ -4690,7 +5286,7 @@
       <c r="F206" s="8"/>
       <c r="G206" s="9"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7">
       <c r="A207" s="1"/>
       <c r="B207" s="30" t="s">
         <v>396</v>
@@ -4701,7 +5297,7 @@
       <c r="F207" s="8"/>
       <c r="G207" s="9"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7">
       <c r="A208" s="1"/>
       <c r="B208" s="30" t="s">
         <v>397</v>
@@ -4712,7 +5308,7 @@
       <c r="F208" s="8"/>
       <c r="G208" s="9"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7">
       <c r="A209" s="1"/>
       <c r="B209" s="30" t="s">
         <v>398</v>
@@ -4723,7 +5319,7 @@
       <c r="F209" s="8"/>
       <c r="G209" s="9"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7">
       <c r="A210" s="1"/>
       <c r="B210" s="30" t="s">
         <v>399</v>
@@ -4734,7 +5330,7 @@
       <c r="F210" s="8"/>
       <c r="G210" s="9"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7">
       <c r="A211" s="1"/>
       <c r="B211" s="30" t="s">
         <v>400</v>
@@ -4745,7 +5341,7 @@
       <c r="F211" s="8"/>
       <c r="G211" s="9"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7">
       <c r="A212" s="1"/>
       <c r="B212" s="30" t="s">
         <v>401</v>
@@ -4756,7 +5352,7 @@
       <c r="F212" s="8"/>
       <c r="G212" s="9"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7">
       <c r="A213" s="1"/>
       <c r="B213" s="30" t="s">
         <v>402</v>
@@ -4767,7 +5363,7 @@
       <c r="F213" s="8"/>
       <c r="G213" s="9"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7">
       <c r="A214" s="1"/>
       <c r="B214" s="30" t="s">
         <v>403</v>
@@ -4778,7 +5374,7 @@
       <c r="F214" s="8"/>
       <c r="G214" s="9"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7">
       <c r="A215" s="1"/>
       <c r="B215" s="30" t="s">
         <v>404</v>
@@ -4789,7 +5385,7 @@
       <c r="F215" s="8"/>
       <c r="G215" s="9"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7">
       <c r="A216" s="1"/>
       <c r="B216" s="30" t="s">
         <v>405</v>
@@ -4800,7 +5396,7 @@
       <c r="F216" s="8"/>
       <c r="G216" s="9"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7">
       <c r="A217" s="1"/>
       <c r="B217" s="30" t="s">
         <v>406</v>
@@ -4811,7 +5407,7 @@
       <c r="F217" s="8"/>
       <c r="G217" s="9"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7">
       <c r="A218" s="1"/>
       <c r="B218" s="30" t="s">
         <v>407</v>
@@ -4822,7 +5418,7 @@
       <c r="F218" s="8"/>
       <c r="G218" s="9"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7">
       <c r="A219" s="1"/>
       <c r="B219" s="30" t="s">
         <v>408</v>
@@ -4833,7 +5429,7 @@
       <c r="F219" s="8"/>
       <c r="G219" s="9"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7">
       <c r="A220" s="1"/>
       <c r="B220" s="30" t="s">
         <v>409</v>
@@ -4844,7 +5440,7 @@
       <c r="F220" s="8"/>
       <c r="G220" s="9"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7">
       <c r="A221" s="1"/>
       <c r="B221" s="30" t="s">
         <v>410</v>
@@ -4855,7 +5451,7 @@
       <c r="F221" s="8"/>
       <c r="G221" s="9"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7">
       <c r="A222" s="16" t="s">
         <v>8</v>
       </c>
@@ -4868,7 +5464,7 @@
       <c r="F222" s="8"/>
       <c r="G222" s="9"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7">
       <c r="A223" s="1"/>
       <c r="B223" s="30" t="s">
         <v>412</v>
@@ -4879,7 +5475,7 @@
       <c r="F223" s="8"/>
       <c r="G223" s="9"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7">
       <c r="A224" s="1"/>
       <c r="B224" s="30" t="s">
         <v>413</v>
@@ -4890,7 +5486,7 @@
       <c r="F224" s="8"/>
       <c r="G224" s="9"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7">
       <c r="A225" s="1"/>
       <c r="B225" s="30" t="s">
         <v>414</v>
@@ -4901,7 +5497,7 @@
       <c r="F225" s="8"/>
       <c r="G225" s="9"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7">
       <c r="A226" s="1"/>
       <c r="B226" s="30" t="s">
         <v>415</v>
@@ -4912,7 +5508,7 @@
       <c r="F226" s="8"/>
       <c r="G226" s="9"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7">
       <c r="A227" s="1"/>
       <c r="B227" s="30" t="s">
         <v>416</v>
@@ -4923,7 +5519,7 @@
       <c r="F227" s="8"/>
       <c r="G227" s="9"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7">
       <c r="A228" s="1"/>
       <c r="B228" s="30" t="s">
         <v>417</v>
@@ -4934,7 +5530,7 @@
       <c r="F228" s="8"/>
       <c r="G228" s="9"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7">
       <c r="A229" s="1"/>
       <c r="B229" s="30" t="s">
         <v>418</v>
@@ -4945,7 +5541,7 @@
       <c r="F229" s="8"/>
       <c r="G229" s="9"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7">
       <c r="A230" s="1"/>
       <c r="B230" s="30" t="s">
         <v>419</v>
@@ -4956,7 +5552,7 @@
       <c r="F230" s="8"/>
       <c r="G230" s="9"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7">
       <c r="A231" s="1"/>
       <c r="B231" s="30" t="s">
         <v>420</v>
@@ -4967,7 +5563,7 @@
       <c r="F231" s="8"/>
       <c r="G231" s="9"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7">
       <c r="A232" s="1"/>
       <c r="B232" s="30" t="s">
         <v>421</v>
@@ -4978,7 +5574,7 @@
       <c r="F232" s="8"/>
       <c r="G232" s="9"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7">
       <c r="A233" s="1"/>
       <c r="B233" s="30" t="s">
         <v>422</v>
@@ -4989,7 +5585,7 @@
       <c r="F233" s="8"/>
       <c r="G233" s="9"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7">
       <c r="A234" s="1"/>
       <c r="B234" s="30" t="s">
         <v>423</v>
@@ -5000,7 +5596,7 @@
       <c r="F234" s="8"/>
       <c r="G234" s="9"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7">
       <c r="A235" s="1"/>
       <c r="B235" s="30" t="s">
         <v>424</v>
@@ -5011,7 +5607,7 @@
       <c r="F235" s="8"/>
       <c r="G235" s="9"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7">
       <c r="A236" s="1"/>
       <c r="B236" s="30" t="s">
         <v>425</v>
@@ -5022,7 +5618,7 @@
       <c r="F236" s="8"/>
       <c r="G236" s="9"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7">
       <c r="A237" s="1"/>
       <c r="B237" s="30" t="s">
         <v>426</v>
@@ -5033,7 +5629,7 @@
       <c r="F237" s="8"/>
       <c r="G237" s="9"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7">
       <c r="A238" s="1"/>
       <c r="B238" s="30" t="s">
         <v>427</v>
@@ -5044,7 +5640,7 @@
       <c r="F238" s="8"/>
       <c r="G238" s="9"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7">
       <c r="A239" s="1"/>
       <c r="B239" s="30" t="s">
         <v>428</v>
@@ -5055,7 +5651,7 @@
       <c r="F239" s="8"/>
       <c r="G239" s="9"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7">
       <c r="A240" s="1"/>
       <c r="B240" s="30" t="s">
         <v>429</v>
@@ -5066,7 +5662,7 @@
       <c r="F240" s="8"/>
       <c r="G240" s="9"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7">
       <c r="B241" s="30" t="s">
         <v>430</v>
       </c>
@@ -5076,7 +5672,7 @@
       <c r="F241" s="8"/>
       <c r="G241" s="9"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7">
       <c r="B242" s="30" t="s">
         <v>431</v>
       </c>
@@ -5086,49 +5682,49 @@
       <c r="F242" s="8"/>
       <c r="G242" s="9"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7">
       <c r="C243" s="14"/>
       <c r="D243" s="14"/>
       <c r="E243" s="21"/>
       <c r="F243" s="8"/>
       <c r="G243" s="9"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7">
       <c r="C244" s="14"/>
       <c r="D244" s="14"/>
       <c r="E244" s="21"/>
       <c r="F244" s="8"/>
       <c r="G244" s="9"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7">
       <c r="C245" s="14"/>
       <c r="D245" s="14"/>
       <c r="E245" s="21"/>
       <c r="F245" s="8"/>
       <c r="G245" s="9"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7">
       <c r="C246" s="14"/>
       <c r="D246" s="14"/>
       <c r="E246" s="21"/>
       <c r="F246" s="8"/>
       <c r="G246" s="9"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7">
       <c r="C247" s="14"/>
       <c r="D247" s="14"/>
       <c r="E247" s="21"/>
       <c r="F247" s="8"/>
       <c r="G247" s="9"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7">
       <c r="C248" s="14"/>
       <c r="D248" s="14"/>
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
       <c r="G248" s="9"/>
     </row>
-    <row r="249" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="13" thickBot="1">
       <c r="B249" s="25"/>
       <c r="C249" s="15"/>
       <c r="D249" s="15"/>
@@ -5136,1617 +5732,1617 @@
       <c r="F249" s="11"/>
       <c r="G249" s="12"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7">
       <c r="A250"/>
       <c r="C250"/>
       <c r="D250"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7">
       <c r="A251"/>
       <c r="C251"/>
       <c r="D251"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7">
       <c r="A252"/>
       <c r="C252"/>
       <c r="D252"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7">
       <c r="A253"/>
       <c r="C253"/>
       <c r="D253"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7">
       <c r="A254"/>
       <c r="C254"/>
       <c r="D254"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7">
       <c r="A255"/>
       <c r="C255"/>
       <c r="D255"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7">
       <c r="A256"/>
       <c r="C256"/>
       <c r="D256"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4">
       <c r="A257"/>
       <c r="C257"/>
       <c r="D257"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4">
       <c r="A258"/>
       <c r="C258"/>
       <c r="D258"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4">
       <c r="A259"/>
       <c r="C259"/>
       <c r="D259"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4">
       <c r="A260"/>
       <c r="C260"/>
       <c r="D260"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4">
       <c r="A261"/>
       <c r="C261"/>
       <c r="D261"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4">
       <c r="A262"/>
       <c r="C262"/>
       <c r="D262"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4">
       <c r="A263"/>
       <c r="C263"/>
       <c r="D263"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4">
       <c r="A264"/>
       <c r="C264"/>
       <c r="D264"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4">
       <c r="A265"/>
       <c r="C265"/>
       <c r="D265"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4">
       <c r="A266"/>
       <c r="C266"/>
       <c r="D266"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4">
       <c r="A267"/>
       <c r="C267"/>
       <c r="D267"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4">
       <c r="A268"/>
       <c r="C268"/>
       <c r="D268"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4">
       <c r="A269"/>
       <c r="C269"/>
       <c r="D269"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4">
       <c r="A270"/>
       <c r="C270"/>
       <c r="D270"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4">
       <c r="A271"/>
       <c r="C271"/>
       <c r="D271"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4">
       <c r="A272"/>
       <c r="C272"/>
       <c r="D272"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4">
       <c r="A273"/>
       <c r="C273"/>
       <c r="D273"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4">
       <c r="A274"/>
       <c r="C274"/>
       <c r="D274"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4">
       <c r="A275"/>
       <c r="C275"/>
       <c r="D275"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4">
       <c r="A276"/>
       <c r="C276"/>
       <c r="D276"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4">
       <c r="A277"/>
       <c r="C277"/>
       <c r="D277"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4">
       <c r="A278"/>
       <c r="C278"/>
       <c r="D278"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4">
       <c r="A279"/>
       <c r="C279"/>
       <c r="D279"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4">
       <c r="A280"/>
       <c r="C280"/>
       <c r="D280"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4">
       <c r="A281"/>
       <c r="C281"/>
       <c r="D281"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4">
       <c r="A282"/>
       <c r="C282"/>
       <c r="D282"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4">
       <c r="A283"/>
       <c r="C283"/>
       <c r="D283"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4">
       <c r="A284"/>
       <c r="C284"/>
       <c r="D284"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4">
       <c r="A285"/>
       <c r="C285"/>
       <c r="D285"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4">
       <c r="A286"/>
       <c r="C286"/>
       <c r="D286"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4">
       <c r="A287"/>
       <c r="C287"/>
       <c r="D287"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4">
       <c r="A288"/>
       <c r="C288"/>
       <c r="D288"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4">
       <c r="A289"/>
       <c r="C289"/>
       <c r="D289"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4">
       <c r="A290"/>
       <c r="C290"/>
       <c r="D290"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4">
       <c r="A291"/>
       <c r="C291"/>
       <c r="D291"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4">
       <c r="A292"/>
       <c r="C292"/>
       <c r="D292"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4">
       <c r="A293"/>
       <c r="C293"/>
       <c r="D293"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4">
       <c r="A294"/>
       <c r="C294"/>
       <c r="D294"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4">
       <c r="A295"/>
       <c r="C295"/>
       <c r="D295"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4">
       <c r="A296"/>
       <c r="C296"/>
       <c r="D296"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4">
       <c r="A297"/>
       <c r="C297"/>
       <c r="D297"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4">
       <c r="A298"/>
       <c r="C298"/>
       <c r="D298"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4">
       <c r="A299"/>
       <c r="C299"/>
       <c r="D299"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4">
       <c r="A300"/>
       <c r="C300"/>
       <c r="D300"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4">
       <c r="A301"/>
       <c r="C301"/>
       <c r="D301"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4">
       <c r="A302"/>
       <c r="C302"/>
       <c r="D302"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4">
       <c r="A303"/>
       <c r="C303"/>
       <c r="D303"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4">
       <c r="A304"/>
       <c r="C304"/>
       <c r="D304"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4">
       <c r="A305"/>
       <c r="C305"/>
       <c r="D305"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4">
       <c r="A306"/>
       <c r="C306"/>
       <c r="D306"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4">
       <c r="A307"/>
       <c r="C307"/>
       <c r="D307"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4">
       <c r="A308"/>
       <c r="C308"/>
       <c r="D308"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4">
       <c r="A309"/>
       <c r="C309"/>
       <c r="D309"/>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4">
       <c r="A310"/>
       <c r="C310"/>
       <c r="D310"/>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4">
       <c r="A311"/>
       <c r="C311"/>
       <c r="D311"/>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4">
       <c r="A312"/>
       <c r="C312"/>
       <c r="D312"/>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4">
       <c r="A313"/>
       <c r="C313"/>
       <c r="D313"/>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4">
       <c r="A314"/>
       <c r="C314"/>
       <c r="D314"/>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4">
       <c r="A315"/>
       <c r="C315"/>
       <c r="D315"/>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4">
       <c r="A316"/>
       <c r="C316"/>
       <c r="D316"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4">
       <c r="A317"/>
       <c r="C317"/>
       <c r="D317"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4">
       <c r="A318"/>
       <c r="C318"/>
       <c r="D318"/>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4">
       <c r="A319"/>
       <c r="C319"/>
       <c r="D319"/>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4">
       <c r="A320"/>
       <c r="C320"/>
       <c r="D320"/>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4">
       <c r="A321"/>
       <c r="C321"/>
       <c r="D321"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4">
       <c r="A322"/>
       <c r="C322"/>
       <c r="D322"/>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4">
       <c r="A323"/>
       <c r="C323"/>
       <c r="D323"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4">
       <c r="A324"/>
       <c r="C324"/>
       <c r="D324"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4">
       <c r="A325"/>
       <c r="C325"/>
       <c r="D325"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4">
       <c r="A326"/>
       <c r="C326"/>
       <c r="D326"/>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4">
       <c r="A327"/>
       <c r="C327"/>
       <c r="D327"/>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4">
       <c r="A328"/>
       <c r="C328"/>
       <c r="D328"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4">
       <c r="A329"/>
       <c r="C329"/>
       <c r="D329"/>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4">
       <c r="A330"/>
       <c r="C330"/>
       <c r="D330"/>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4">
       <c r="A331"/>
       <c r="C331"/>
       <c r="D331"/>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4">
       <c r="A332"/>
       <c r="C332"/>
       <c r="D332"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4">
       <c r="A333"/>
       <c r="C333"/>
       <c r="D333"/>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4">
       <c r="A334"/>
       <c r="C334"/>
       <c r="D334"/>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4">
       <c r="A335"/>
       <c r="C335"/>
       <c r="D335"/>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4">
       <c r="A336"/>
       <c r="C336"/>
       <c r="D336"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4">
       <c r="A337"/>
       <c r="C337"/>
       <c r="D337"/>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4">
       <c r="A338"/>
       <c r="C338"/>
       <c r="D338"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4">
       <c r="A339"/>
       <c r="C339"/>
       <c r="D339"/>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4">
       <c r="A340"/>
       <c r="C340"/>
       <c r="D340"/>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4">
       <c r="A341"/>
       <c r="C341"/>
       <c r="D341"/>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4">
       <c r="A342"/>
       <c r="C342"/>
       <c r="D342"/>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4">
       <c r="A343"/>
       <c r="C343"/>
       <c r="D343"/>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4">
       <c r="A344"/>
       <c r="C344"/>
       <c r="D344"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4">
       <c r="A345"/>
       <c r="C345"/>
       <c r="D345"/>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4">
       <c r="A346"/>
       <c r="C346"/>
       <c r="D346"/>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4">
       <c r="A347"/>
       <c r="C347"/>
       <c r="D347"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4">
       <c r="A348"/>
       <c r="C348"/>
       <c r="D348"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4">
       <c r="A349"/>
       <c r="C349"/>
       <c r="D349"/>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4">
       <c r="A350"/>
       <c r="C350"/>
       <c r="D350"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4">
       <c r="A351"/>
       <c r="C351"/>
       <c r="D351"/>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4">
       <c r="A352"/>
       <c r="C352"/>
       <c r="D352"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4">
       <c r="A353"/>
       <c r="C353"/>
       <c r="D353"/>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4">
       <c r="A354"/>
       <c r="C354"/>
       <c r="D354"/>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4">
       <c r="A355"/>
       <c r="C355"/>
       <c r="D355"/>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4">
       <c r="A356"/>
       <c r="C356"/>
       <c r="D356"/>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4">
       <c r="A357"/>
       <c r="C357"/>
       <c r="D357"/>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4">
       <c r="A358"/>
       <c r="C358"/>
       <c r="D358"/>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4">
       <c r="A359"/>
       <c r="C359"/>
       <c r="D359"/>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4">
       <c r="A360"/>
       <c r="C360"/>
       <c r="D360"/>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4">
       <c r="A361"/>
       <c r="C361"/>
       <c r="D361"/>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4">
       <c r="A362"/>
       <c r="C362"/>
       <c r="D362"/>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4">
       <c r="A363"/>
       <c r="C363"/>
       <c r="D363"/>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4">
       <c r="A364"/>
       <c r="C364"/>
       <c r="D364"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4">
       <c r="A365"/>
       <c r="C365"/>
       <c r="D365"/>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4">
       <c r="A366"/>
       <c r="C366"/>
       <c r="D366"/>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4">
       <c r="A367"/>
       <c r="C367"/>
       <c r="D367"/>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4">
       <c r="A368"/>
       <c r="C368"/>
       <c r="D368"/>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4">
       <c r="A369"/>
       <c r="C369"/>
       <c r="D369"/>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4">
       <c r="A370"/>
       <c r="C370"/>
       <c r="D370"/>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4">
       <c r="A371"/>
       <c r="C371"/>
       <c r="D371"/>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4">
       <c r="A372"/>
       <c r="C372"/>
       <c r="D372"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4">
       <c r="A373"/>
       <c r="C373"/>
       <c r="D373"/>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4">
       <c r="A374"/>
       <c r="C374"/>
       <c r="D374"/>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4">
       <c r="A375"/>
       <c r="C375"/>
       <c r="D375"/>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4">
       <c r="A376"/>
       <c r="C376"/>
       <c r="D376"/>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4">
       <c r="A377"/>
       <c r="C377"/>
       <c r="D377"/>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4">
       <c r="A378"/>
       <c r="C378"/>
       <c r="D378"/>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4">
       <c r="A379"/>
       <c r="C379"/>
       <c r="D379"/>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4">
       <c r="A380"/>
       <c r="C380"/>
       <c r="D380"/>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4">
       <c r="A381"/>
       <c r="C381"/>
       <c r="D381"/>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4">
       <c r="A382"/>
       <c r="C382"/>
       <c r="D382"/>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4">
       <c r="A383"/>
       <c r="C383"/>
       <c r="D383"/>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4">
       <c r="A384"/>
       <c r="C384"/>
       <c r="D384"/>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4">
       <c r="A385"/>
       <c r="C385"/>
       <c r="D385"/>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4">
       <c r="A386"/>
       <c r="C386"/>
       <c r="D386"/>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4">
       <c r="A387"/>
       <c r="C387"/>
       <c r="D387"/>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4">
       <c r="A388"/>
       <c r="C388"/>
       <c r="D388"/>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4">
       <c r="A389"/>
       <c r="C389"/>
       <c r="D389"/>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4">
       <c r="A390"/>
       <c r="C390"/>
       <c r="D390"/>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4">
       <c r="A391"/>
       <c r="C391"/>
       <c r="D391"/>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4">
       <c r="A392"/>
       <c r="C392"/>
       <c r="D392"/>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4">
       <c r="A393"/>
       <c r="C393"/>
       <c r="D393"/>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4">
       <c r="A394"/>
       <c r="C394"/>
       <c r="D394"/>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4">
       <c r="A395"/>
       <c r="C395"/>
       <c r="D395"/>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4">
       <c r="A396"/>
       <c r="C396"/>
       <c r="D396"/>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4">
       <c r="A397"/>
       <c r="C397"/>
       <c r="D397"/>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4">
       <c r="A398"/>
       <c r="C398"/>
       <c r="D398"/>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4">
       <c r="A399"/>
       <c r="C399"/>
       <c r="D399"/>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4">
       <c r="A400"/>
       <c r="C400"/>
       <c r="D400"/>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4">
       <c r="A401"/>
       <c r="C401"/>
       <c r="D401"/>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4">
       <c r="A402"/>
       <c r="C402"/>
       <c r="D402"/>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4">
       <c r="A403"/>
       <c r="C403"/>
       <c r="D403"/>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4">
       <c r="A404"/>
       <c r="C404"/>
       <c r="D404"/>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4">
       <c r="A405"/>
       <c r="C405"/>
       <c r="D405"/>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4">
       <c r="A406"/>
       <c r="C406"/>
       <c r="D406"/>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4">
       <c r="A407"/>
       <c r="C407"/>
       <c r="D407"/>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4">
       <c r="A408"/>
       <c r="C408"/>
       <c r="D408"/>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4">
       <c r="A409"/>
       <c r="C409"/>
       <c r="D409"/>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4">
       <c r="A410"/>
       <c r="C410"/>
       <c r="D410"/>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4">
       <c r="A411"/>
       <c r="C411"/>
       <c r="D411"/>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4">
       <c r="A412"/>
       <c r="C412"/>
       <c r="D412"/>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4">
       <c r="A413"/>
       <c r="C413"/>
       <c r="D413"/>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4">
       <c r="A414"/>
       <c r="C414"/>
       <c r="D414"/>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4">
       <c r="A415"/>
       <c r="C415"/>
       <c r="D415"/>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4">
       <c r="A416"/>
       <c r="C416"/>
       <c r="D416"/>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4">
       <c r="A417"/>
       <c r="C417"/>
       <c r="D417"/>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4">
       <c r="A418"/>
       <c r="C418"/>
       <c r="D418"/>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4">
       <c r="A419"/>
       <c r="C419"/>
       <c r="D419"/>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4">
       <c r="A420"/>
       <c r="C420"/>
       <c r="D420"/>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4">
       <c r="A421"/>
       <c r="C421"/>
       <c r="D421"/>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4">
       <c r="A422"/>
       <c r="C422"/>
       <c r="D422"/>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4">
       <c r="A423"/>
       <c r="C423"/>
       <c r="D423"/>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4">
       <c r="A424"/>
       <c r="C424"/>
       <c r="D424"/>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4">
       <c r="A425"/>
       <c r="C425"/>
       <c r="D425"/>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4">
       <c r="A426"/>
       <c r="C426"/>
       <c r="D426"/>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4">
       <c r="A427"/>
       <c r="C427"/>
       <c r="D427"/>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4">
       <c r="A428"/>
       <c r="C428"/>
       <c r="D428"/>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4">
       <c r="A429"/>
       <c r="C429"/>
       <c r="D429"/>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4">
       <c r="A430"/>
       <c r="C430"/>
       <c r="D430"/>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4">
       <c r="A431"/>
       <c r="C431"/>
       <c r="D431"/>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4">
       <c r="A432"/>
       <c r="C432"/>
       <c r="D432"/>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4">
       <c r="A433"/>
       <c r="C433"/>
       <c r="D433"/>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4">
       <c r="A434"/>
       <c r="C434"/>
       <c r="D434"/>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4">
       <c r="A435"/>
       <c r="C435"/>
       <c r="D435"/>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4">
       <c r="A436"/>
       <c r="C436"/>
       <c r="D436"/>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4">
       <c r="A437"/>
       <c r="C437"/>
       <c r="D437"/>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4">
       <c r="A438"/>
       <c r="C438"/>
       <c r="D438"/>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4">
       <c r="A439"/>
       <c r="C439"/>
       <c r="D439"/>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4">
       <c r="A440"/>
       <c r="C440"/>
       <c r="D440"/>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4">
       <c r="A441"/>
       <c r="C441"/>
       <c r="D441"/>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4">
       <c r="A442"/>
       <c r="C442"/>
       <c r="D442"/>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4">
       <c r="A443"/>
       <c r="C443"/>
       <c r="D443"/>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4">
       <c r="A444"/>
       <c r="C444"/>
       <c r="D444"/>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4">
       <c r="A445"/>
       <c r="C445"/>
       <c r="D445"/>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4">
       <c r="A446"/>
       <c r="C446"/>
       <c r="D446"/>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4">
       <c r="A447"/>
       <c r="C447"/>
       <c r="D447"/>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4">
       <c r="A448"/>
       <c r="C448"/>
       <c r="D448"/>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4">
       <c r="A449"/>
       <c r="C449"/>
       <c r="D449"/>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4">
       <c r="A450"/>
       <c r="C450"/>
       <c r="D450"/>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4">
       <c r="A451"/>
       <c r="C451"/>
       <c r="D451"/>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4">
       <c r="A452"/>
       <c r="C452"/>
       <c r="D452"/>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4">
       <c r="A453"/>
       <c r="C453"/>
       <c r="D453"/>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4">
       <c r="A454"/>
       <c r="C454"/>
       <c r="D454"/>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4">
       <c r="A455"/>
       <c r="C455"/>
       <c r="D455"/>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4">
       <c r="A456"/>
       <c r="C456"/>
       <c r="D456"/>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4">
       <c r="A457"/>
       <c r="C457"/>
       <c r="D457"/>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4">
       <c r="A458"/>
       <c r="C458"/>
       <c r="D458"/>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4">
       <c r="A459"/>
       <c r="C459"/>
       <c r="D459"/>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4">
       <c r="A460"/>
       <c r="C460"/>
       <c r="D460"/>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4">
       <c r="A461"/>
       <c r="C461"/>
       <c r="D461"/>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4">
       <c r="A462"/>
       <c r="C462"/>
       <c r="D462"/>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4">
       <c r="A463"/>
       <c r="C463"/>
       <c r="D463"/>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4">
       <c r="A464"/>
       <c r="C464"/>
       <c r="D464"/>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4">
       <c r="A465"/>
       <c r="C465"/>
       <c r="D465"/>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4">
       <c r="A466"/>
       <c r="C466"/>
       <c r="D466"/>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4">
       <c r="A467"/>
       <c r="C467"/>
       <c r="D467"/>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4">
       <c r="A468"/>
       <c r="C468"/>
       <c r="D468"/>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4">
       <c r="A469"/>
       <c r="C469"/>
       <c r="D469"/>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4">
       <c r="A470"/>
       <c r="C470"/>
       <c r="D470"/>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4">
       <c r="A471"/>
       <c r="C471"/>
       <c r="D471"/>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4">
       <c r="A472"/>
       <c r="C472"/>
       <c r="D472"/>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4">
       <c r="A473"/>
       <c r="C473"/>
       <c r="D473"/>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4">
       <c r="A474"/>
       <c r="C474"/>
       <c r="D474"/>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4">
       <c r="A475"/>
       <c r="C475"/>
       <c r="D475"/>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4">
       <c r="A476"/>
       <c r="C476"/>
       <c r="D476"/>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4">
       <c r="A477"/>
       <c r="C477"/>
       <c r="D477"/>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4">
       <c r="A478"/>
       <c r="C478"/>
       <c r="D478"/>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4">
       <c r="A479"/>
       <c r="C479"/>
       <c r="D479"/>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4">
       <c r="A480"/>
       <c r="C480"/>
       <c r="D480"/>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4">
       <c r="A481"/>
       <c r="C481"/>
       <c r="D481"/>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4">
       <c r="A482"/>
       <c r="C482"/>
       <c r="D482"/>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4">
       <c r="A483"/>
       <c r="C483"/>
       <c r="D483"/>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4">
       <c r="A484"/>
       <c r="C484"/>
       <c r="D484"/>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4">
       <c r="A485"/>
       <c r="C485"/>
       <c r="D485"/>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4">
       <c r="A486"/>
       <c r="C486"/>
       <c r="D486"/>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4">
       <c r="A487"/>
       <c r="C487"/>
       <c r="D487"/>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4">
       <c r="A488"/>
       <c r="C488"/>
       <c r="D488"/>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4">
       <c r="A489"/>
       <c r="C489"/>
       <c r="D489"/>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4">
       <c r="A490"/>
       <c r="C490"/>
       <c r="D490"/>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4">
       <c r="A491"/>
       <c r="C491"/>
       <c r="D491"/>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4">
       <c r="A492"/>
       <c r="C492"/>
       <c r="D492"/>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:4">
       <c r="A493"/>
       <c r="C493"/>
       <c r="D493"/>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4">
       <c r="A494"/>
       <c r="C494"/>
       <c r="D494"/>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4">
       <c r="A495"/>
       <c r="C495"/>
       <c r="D495"/>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:4">
       <c r="A496"/>
       <c r="C496"/>
       <c r="D496"/>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4">
       <c r="A497"/>
       <c r="C497"/>
       <c r="D497"/>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4">
       <c r="A498"/>
       <c r="C498"/>
       <c r="D498"/>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:4">
       <c r="A499"/>
       <c r="C499"/>
       <c r="D499"/>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4">
       <c r="A500"/>
       <c r="C500"/>
       <c r="D500"/>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4">
       <c r="A501"/>
       <c r="C501"/>
       <c r="D501"/>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4">
       <c r="A502"/>
       <c r="C502"/>
       <c r="D502"/>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4">
       <c r="A503"/>
       <c r="C503"/>
       <c r="D503"/>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4">
       <c r="A504"/>
       <c r="C504"/>
       <c r="D504"/>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4">
       <c r="A505"/>
       <c r="C505"/>
       <c r="D505"/>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4">
       <c r="A506"/>
       <c r="C506"/>
       <c r="D506"/>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4">
       <c r="A507"/>
       <c r="C507"/>
       <c r="D507"/>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4">
       <c r="A508"/>
       <c r="C508"/>
       <c r="D508"/>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4">
       <c r="A509"/>
       <c r="C509"/>
       <c r="D509"/>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4">
       <c r="A510"/>
       <c r="C510"/>
       <c r="D510"/>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:4">
       <c r="A511"/>
       <c r="C511"/>
       <c r="D511"/>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:4">
       <c r="A512"/>
       <c r="C512"/>
       <c r="D512"/>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:4">
       <c r="A513"/>
       <c r="C513"/>
       <c r="D513"/>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4">
       <c r="A514"/>
       <c r="C514"/>
       <c r="D514"/>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:4">
       <c r="A515"/>
       <c r="C515"/>
       <c r="D515"/>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:4">
       <c r="A516"/>
       <c r="C516"/>
       <c r="D516"/>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:4">
       <c r="A517"/>
       <c r="C517"/>
       <c r="D517"/>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4">
       <c r="A518"/>
       <c r="C518"/>
       <c r="D518"/>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:4">
       <c r="A519"/>
       <c r="C519"/>
       <c r="D519"/>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:4">
       <c r="A520"/>
       <c r="C520"/>
       <c r="D520"/>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:4">
       <c r="A521"/>
       <c r="C521"/>
       <c r="D521"/>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:4">
       <c r="A522"/>
       <c r="C522"/>
       <c r="D522"/>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:4">
       <c r="A523"/>
       <c r="C523"/>
       <c r="D523"/>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:4">
       <c r="A524"/>
       <c r="C524"/>
       <c r="D524"/>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4">
       <c r="A525"/>
       <c r="C525"/>
       <c r="D525"/>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4">
       <c r="A526"/>
       <c r="C526"/>
       <c r="D526"/>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:4">
       <c r="A527"/>
       <c r="C527"/>
       <c r="D527"/>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:4">
       <c r="A528"/>
       <c r="C528"/>
       <c r="D528"/>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:4">
       <c r="A529"/>
       <c r="C529"/>
       <c r="D529"/>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:4">
       <c r="A530"/>
       <c r="C530"/>
       <c r="D530"/>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:4">
       <c r="A531"/>
       <c r="C531"/>
       <c r="D531"/>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:4">
       <c r="A532"/>
       <c r="C532"/>
       <c r="D532"/>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:4">
       <c r="A533"/>
       <c r="C533"/>
       <c r="D533"/>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:4">
       <c r="A534"/>
       <c r="C534"/>
       <c r="D534"/>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:4">
       <c r="A535"/>
       <c r="C535"/>
       <c r="D535"/>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:4">
       <c r="A536"/>
       <c r="C536"/>
       <c r="D536"/>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:4">
       <c r="A537"/>
       <c r="C537"/>
       <c r="D537"/>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:4">
       <c r="A538"/>
       <c r="C538"/>
       <c r="D538"/>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:4">
       <c r="A539"/>
       <c r="C539"/>
       <c r="D539"/>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:4">
       <c r="A540"/>
       <c r="C540"/>
       <c r="D540"/>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:4">
       <c r="A541"/>
       <c r="C541"/>
       <c r="D541"/>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:4">
       <c r="A542"/>
       <c r="C542"/>
       <c r="D542"/>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:4">
       <c r="A543"/>
       <c r="C543"/>
       <c r="D543"/>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:4">
       <c r="A544"/>
       <c r="C544"/>
       <c r="D544"/>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4">
       <c r="A545"/>
       <c r="C545"/>
       <c r="D545"/>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:4">
       <c r="A546"/>
       <c r="C546"/>
       <c r="D546"/>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4">
       <c r="A547"/>
       <c r="C547"/>
       <c r="D547"/>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4">
       <c r="A548"/>
       <c r="C548"/>
       <c r="D548"/>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4">
       <c r="A549"/>
       <c r="C549"/>
       <c r="D549"/>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4">
       <c r="A550"/>
       <c r="C550"/>
       <c r="D550"/>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4">
       <c r="A551"/>
       <c r="C551"/>
       <c r="D551"/>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4">
       <c r="A552"/>
       <c r="C552"/>
       <c r="D552"/>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4">
       <c r="A553"/>
       <c r="C553"/>
       <c r="D553"/>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4">
       <c r="A554"/>
       <c r="C554"/>
       <c r="D554"/>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4">
       <c r="A555"/>
       <c r="C555"/>
       <c r="D555"/>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4">
       <c r="A556"/>
       <c r="C556"/>
       <c r="D556"/>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4">
       <c r="A557"/>
       <c r="C557"/>
       <c r="D557"/>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4">
       <c r="A558"/>
       <c r="C558"/>
       <c r="D558"/>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4">
       <c r="A559"/>
       <c r="C559"/>
       <c r="D559"/>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4">
       <c r="A560"/>
       <c r="C560"/>
       <c r="D560"/>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:4">
       <c r="A561"/>
       <c r="C561"/>
       <c r="D561"/>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:4">
       <c r="A562"/>
       <c r="C562"/>
       <c r="D562"/>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:4">
       <c r="A563"/>
       <c r="C563"/>
       <c r="D563"/>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:4">
       <c r="A564"/>
       <c r="C564"/>
       <c r="D564"/>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:4">
       <c r="A565"/>
       <c r="C565"/>
       <c r="D565"/>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:4">
       <c r="A566"/>
       <c r="C566"/>
       <c r="D566"/>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:4">
       <c r="A567"/>
       <c r="C567"/>
       <c r="D567"/>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:4">
       <c r="A568"/>
       <c r="C568"/>
       <c r="D568"/>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:4">
       <c r="A569"/>
       <c r="C569"/>
       <c r="D569"/>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:4">
       <c r="A570"/>
       <c r="C570"/>
       <c r="D570"/>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:4">
       <c r="A571"/>
       <c r="C571"/>
       <c r="D571"/>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:4">
       <c r="A572"/>
       <c r="C572"/>
       <c r="D572"/>
@@ -6770,15 +7366,15 @@
       <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="31.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="13" thickBot="1">
       <c r="B1" s="28" t="s">
         <v>14</v>
       </c>
@@ -6798,7 +7394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6811,7 +7407,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="B3" s="26" t="s">
         <v>24</v>
       </c>
@@ -6821,7 +7417,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="B4" s="26" t="s">
         <v>25</v>
       </c>
@@ -6831,7 +7427,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="B5" s="26" t="s">
         <v>26</v>
       </c>
@@ -6841,7 +7437,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="B6" s="26" t="s">
         <v>27</v>
       </c>
@@ -6851,7 +7447,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="B7" s="26" t="s">
         <v>28</v>
       </c>
@@ -6861,7 +7457,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="B8" s="26" t="s">
         <v>29</v>
       </c>
@@ -6871,7 +7467,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="B9" s="26" t="s">
         <v>30</v>
       </c>
@@ -6881,7 +7477,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="B10" s="26" t="s">
         <v>31</v>
       </c>
@@ -6891,7 +7487,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="B11" s="26" t="s">
         <v>32</v>
       </c>
@@ -6901,7 +7497,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="B12" s="26" t="s">
         <v>33</v>
       </c>
@@ -6911,7 +7507,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="B13" s="26" t="s">
         <v>34</v>
       </c>
@@ -6921,7 +7517,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="B14" s="26" t="s">
         <v>35</v>
       </c>
@@ -6931,7 +7527,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="B15" s="26" t="s">
         <v>36</v>
       </c>
@@ -6941,7 +7537,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="B16" s="26" t="s">
         <v>37</v>
       </c>
@@ -6951,7 +7547,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="B17" s="26" t="s">
         <v>38</v>
       </c>
@@ -6961,7 +7557,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="B18" s="26" t="s">
         <v>39</v>
       </c>
@@ -6971,7 +7567,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="B19" s="26" t="s">
         <v>40</v>
       </c>
@@ -6981,7 +7577,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="B20" s="26" t="s">
         <v>41</v>
       </c>
@@ -6991,7 +7587,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -7004,7 +7600,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="B22" s="27" t="s">
         <v>43</v>
       </c>
@@ -7014,7 +7610,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="B23" s="27" t="s">
         <v>44</v>
       </c>
@@ -7024,7 +7620,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="B24" s="27" t="s">
         <v>45</v>
       </c>
@@ -7034,7 +7630,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="B25" s="27" t="s">
         <v>46</v>
       </c>
@@ -7044,7 +7640,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="B26" s="27" t="s">
         <v>47</v>
       </c>
@@ -7054,7 +7650,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="B27" s="27" t="s">
         <v>48</v>
       </c>
@@ -7064,7 +7660,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="B28" s="27" t="s">
         <v>49</v>
       </c>
@@ -7074,7 +7670,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="B29" s="27" t="s">
         <v>50</v>
       </c>
@@ -7084,7 +7680,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="B30" s="27" t="s">
         <v>51</v>
       </c>
@@ -7094,7 +7690,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="B31" s="27" t="s">
         <v>52</v>
       </c>
@@ -7104,7 +7700,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="B32" s="27" t="s">
         <v>53</v>
       </c>
@@ -7114,7 +7710,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="B33" s="27" t="s">
         <v>54</v>
       </c>
@@ -7124,7 +7720,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="B34" s="27" t="s">
         <v>55</v>
       </c>
@@ -7134,7 +7730,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="B35" s="27" t="s">
         <v>56</v>
       </c>
@@ -7144,7 +7740,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="B36" s="27" t="s">
         <v>57</v>
       </c>
@@ -7154,7 +7750,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="B37" s="27" t="s">
         <v>58</v>
       </c>
@@ -7164,7 +7760,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="B38" s="27" t="s">
         <v>59</v>
       </c>
@@ -7174,7 +7770,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="B39" s="27" t="s">
         <v>60</v>
       </c>
@@ -7184,7 +7780,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -7197,7 +7793,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="B41" s="26" t="s">
         <v>62</v>
       </c>
@@ -7207,7 +7803,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="B42" s="26" t="s">
         <v>63</v>
       </c>
@@ -7217,7 +7813,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="B43" s="26" t="s">
         <v>64</v>
       </c>
@@ -7227,7 +7823,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="B44" s="26" t="s">
         <v>65</v>
       </c>
@@ -7237,7 +7833,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="B45" s="26" t="s">
         <v>66</v>
       </c>
@@ -7247,7 +7843,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="B46" s="26" t="s">
         <v>67</v>
       </c>
@@ -7257,7 +7853,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="B47" s="26" t="s">
         <v>68</v>
       </c>
@@ -7267,7 +7863,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="B48" s="26" t="s">
         <v>69</v>
       </c>
@@ -7277,7 +7873,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="B49" s="26" t="s">
         <v>70</v>
       </c>
@@ -7287,7 +7883,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="B50" s="26" t="s">
         <v>71</v>
       </c>
@@ -7297,7 +7893,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="B51" s="26" t="s">
         <v>72</v>
       </c>
@@ -7307,7 +7903,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="B52" s="26" t="s">
         <v>73</v>
       </c>
@@ -7317,7 +7913,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="B53" s="26" t="s">
         <v>74</v>
       </c>
@@ -7327,7 +7923,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="B54" s="26" t="s">
         <v>75</v>
       </c>
@@ -7337,7 +7933,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="B55" s="26" t="s">
         <v>76</v>
       </c>
@@ -7347,7 +7943,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="B56" s="26" t="s">
         <v>77</v>
       </c>
@@ -7357,7 +7953,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="B57" s="26" t="s">
         <v>78</v>
       </c>
@@ -7367,7 +7963,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="3" t="s">
         <v>3</v>
       </c>
@@ -7380,7 +7976,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="B59" s="27" t="s">
         <v>80</v>
       </c>
@@ -7390,7 +7986,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="B60" s="27" t="s">
         <v>81</v>
       </c>
@@ -7400,7 +7996,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="B61" s="27" t="s">
         <v>82</v>
       </c>
@@ -7410,7 +8006,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="B62" s="27" t="s">
         <v>83</v>
       </c>
@@ -7420,7 +8016,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="B63" s="27" t="s">
         <v>84</v>
       </c>
@@ -7430,7 +8026,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="B64" s="27" t="s">
         <v>85</v>
       </c>
@@ -7440,7 +8036,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="B65" s="27" t="s">
         <v>86</v>
       </c>
@@ -7450,7 +8046,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="B66" s="27" t="s">
         <v>87</v>
       </c>
@@ -7460,7 +8056,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="B67" s="27" t="s">
         <v>88</v>
       </c>
@@ -7470,7 +8066,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="B68" s="27" t="s">
         <v>89</v>
       </c>
@@ -7480,7 +8076,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="B69" s="27" t="s">
         <v>90</v>
       </c>
@@ -7490,7 +8086,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="B70" s="27" t="s">
         <v>91</v>
       </c>
@@ -7500,7 +8096,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="B71" s="27" t="s">
         <v>92</v>
       </c>
@@ -7510,7 +8106,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="B72" s="27" t="s">
         <v>93</v>
       </c>
@@ -7520,7 +8116,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="B73" s="27" t="s">
         <v>94</v>
       </c>
@@ -7530,7 +8126,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="B74" s="27" t="s">
         <v>95</v>
       </c>
@@ -7540,7 +8136,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="B75" s="27" t="s">
         <v>96</v>
       </c>
@@ -7550,7 +8146,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="B76" s="27" t="s">
         <v>97</v>
       </c>
@@ -7560,7 +8156,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
         <v>4</v>
       </c>
@@ -7573,7 +8169,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="B78" s="26" t="s">
         <v>99</v>
       </c>
@@ -7583,7 +8179,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="B79" s="26" t="s">
         <v>100</v>
       </c>
@@ -7593,7 +8189,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="B80" s="26" t="s">
         <v>101</v>
       </c>
@@ -7603,7 +8199,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="B81" s="26" t="s">
         <v>102</v>
       </c>
@@ -7613,7 +8209,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="B82" s="26" t="s">
         <v>103</v>
       </c>
@@ -7623,7 +8219,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="B83" s="26" t="s">
         <v>104</v>
       </c>
@@ -7633,7 +8229,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="B84" s="26" t="s">
         <v>105</v>
       </c>
@@ -7643,7 +8239,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="B85" s="26" t="s">
         <v>106</v>
       </c>
@@ -7653,7 +8249,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="B86" s="26" t="s">
         <v>107</v>
       </c>
@@ -7663,7 +8259,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="B87" s="26" t="s">
         <v>108</v>
       </c>
@@ -7673,7 +8269,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="B88" s="26" t="s">
         <v>109</v>
       </c>
@@ -7683,7 +8279,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="B89" s="26" t="s">
         <v>110</v>
       </c>
@@ -7693,7 +8289,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="B90" s="26" t="s">
         <v>111</v>
       </c>
@@ -7703,7 +8299,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="B91" s="26" t="s">
         <v>112</v>
       </c>
@@ -7713,7 +8309,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="B92" s="26" t="s">
         <v>113</v>
       </c>
@@ -7723,7 +8319,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="B93" s="26" t="s">
         <v>114</v>
       </c>
@@ -7733,7 +8329,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="B94" s="26" t="s">
         <v>115</v>
       </c>
@@ -7743,7 +8339,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="3" t="s">
         <v>5</v>
       </c>
@@ -7756,7 +8352,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="B96" s="27" t="s">
         <v>117</v>
       </c>
@@ -7766,7 +8362,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7">
       <c r="B97" s="27" t="s">
         <v>118</v>
       </c>
@@ -7776,7 +8372,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7">
       <c r="B98" s="27" t="s">
         <v>119</v>
       </c>
@@ -7786,7 +8382,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7">
       <c r="B99" s="27" t="s">
         <v>120</v>
       </c>
@@ -7796,7 +8392,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7">
       <c r="B100" s="27" t="s">
         <v>121</v>
       </c>
@@ -7806,7 +8402,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7">
       <c r="B101" s="27" t="s">
         <v>122</v>
       </c>
@@ -7816,7 +8412,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7">
       <c r="B102" s="27" t="s">
         <v>123</v>
       </c>
@@ -7826,7 +8422,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7">
       <c r="B103" s="27" t="s">
         <v>124</v>
       </c>
@@ -7836,7 +8432,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7">
       <c r="B104" s="27" t="s">
         <v>125</v>
       </c>
@@ -7846,7 +8442,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7">
       <c r="B105" s="27" t="s">
         <v>126</v>
       </c>
@@ -7856,7 +8452,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7">
       <c r="B106" s="27" t="s">
         <v>127</v>
       </c>
@@ -7866,7 +8462,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:7">
       <c r="B107" s="27" t="s">
         <v>128</v>
       </c>
@@ -7876,7 +8472,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7">
       <c r="B108" s="27" t="s">
         <v>129</v>
       </c>
@@ -7886,7 +8482,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7">
       <c r="B109" s="27" t="s">
         <v>130</v>
       </c>
@@ -7896,7 +8492,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:7">
       <c r="B110" s="27" t="s">
         <v>131</v>
       </c>
@@ -7906,7 +8502,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:7">
       <c r="B111" s="27" t="s">
         <v>132</v>
       </c>
@@ -7916,7 +8512,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:7">
       <c r="B112" s="27" t="s">
         <v>133</v>
       </c>
@@ -7926,7 +8522,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="B113" s="27" t="s">
         <v>134</v>
       </c>
@@ -7936,7 +8532,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="3" t="s">
         <v>6</v>
       </c>
@@ -7949,7 +8545,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="B115" s="26" t="s">
         <v>136</v>
       </c>
@@ -7959,7 +8555,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="B116" s="26" t="s">
         <v>137</v>
       </c>
@@ -7969,7 +8565,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="B117" s="26" t="s">
         <v>138</v>
       </c>
@@ -7979,7 +8575,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="9"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="B118" s="26" t="s">
         <v>139</v>
       </c>
@@ -7989,7 +8585,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="B119" s="26" t="s">
         <v>140</v>
       </c>
@@ -7999,7 +8595,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="9"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="B120" s="26" t="s">
         <v>141</v>
       </c>
@@ -8009,7 +8605,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="B121" s="26" t="s">
         <v>142</v>
       </c>
@@ -8019,7 +8615,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="9"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="B122" s="26" t="s">
         <v>143</v>
       </c>
@@ -8029,7 +8625,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="B123" s="26" t="s">
         <v>144</v>
       </c>
@@ -8039,7 +8635,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="9"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="B124" s="26" t="s">
         <v>145</v>
       </c>
@@ -8049,7 +8645,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="B125" s="26" t="s">
         <v>146</v>
       </c>
@@ -8059,7 +8655,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="9"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="B126" s="26" t="s">
         <v>147</v>
       </c>
@@ -8069,7 +8665,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="B127" s="26" t="s">
         <v>148</v>
       </c>
@@ -8079,7 +8675,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="9"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="B128" s="26" t="s">
         <v>149</v>
       </c>
@@ -8089,7 +8685,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="9"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="B129" s="26" t="s">
         <v>150</v>
       </c>
@@ -8099,7 +8695,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="9"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="B130" s="26" t="s">
         <v>151</v>
       </c>
@@ -8109,7 +8705,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="B131" s="26" t="s">
         <v>152</v>
       </c>
@@ -8119,7 +8715,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="9"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="B132" s="26" t="s">
         <v>153</v>
       </c>
@@ -8129,7 +8725,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="3" t="s">
         <v>7</v>
       </c>
@@ -8142,7 +8738,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="9"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="B134" s="27" t="s">
         <v>155</v>
       </c>
@@ -8152,7 +8748,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="9"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="B135" s="27" t="s">
         <v>156</v>
       </c>
@@ -8162,7 +8758,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="9"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="B136" s="27" t="s">
         <v>157</v>
       </c>
@@ -8172,7 +8768,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="9"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="B137" s="27" t="s">
         <v>158</v>
       </c>
@@ -8182,7 +8778,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="9"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="B138" s="27" t="s">
         <v>159</v>
       </c>
@@ -8192,7 +8788,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="9"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="B139" s="27" t="s">
         <v>160</v>
       </c>
@@ -8202,7 +8798,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="9"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="B140" s="27" t="s">
         <v>161</v>
       </c>
@@ -8212,7 +8808,7 @@
       <c r="F140" s="8"/>
       <c r="G140" s="9"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="B141" s="27" t="s">
         <v>162</v>
       </c>
@@ -8222,7 +8818,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="9"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="B142" s="27" t="s">
         <v>163</v>
       </c>
@@ -8232,7 +8828,7 @@
       <c r="F142" s="8"/>
       <c r="G142" s="9"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="B143" s="27" t="s">
         <v>164</v>
       </c>
@@ -8242,7 +8838,7 @@
       <c r="F143" s="8"/>
       <c r="G143" s="9"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="B144" s="27" t="s">
         <v>165</v>
       </c>
@@ -8252,7 +8848,7 @@
       <c r="F144" s="8"/>
       <c r="G144" s="9"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="B145" s="27" t="s">
         <v>166</v>
       </c>
@@ -8262,7 +8858,7 @@
       <c r="F145" s="8"/>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="B146" s="27" t="s">
         <v>167</v>
       </c>
@@ -8272,7 +8868,7 @@
       <c r="F146" s="8"/>
       <c r="G146" s="9"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="B147" s="27" t="s">
         <v>168</v>
       </c>
@@ -8282,7 +8878,7 @@
       <c r="F147" s="8"/>
       <c r="G147" s="9"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="B148" s="27" t="s">
         <v>169</v>
       </c>
@@ -8292,7 +8888,7 @@
       <c r="F148" s="8"/>
       <c r="G148" s="9"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="B149" s="27" t="s">
         <v>170</v>
       </c>
@@ -8302,7 +8898,7 @@
       <c r="F149" s="8"/>
       <c r="G149" s="9"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="B150" s="27" t="s">
         <v>171</v>
       </c>
@@ -8312,7 +8908,7 @@
       <c r="F150" s="8"/>
       <c r="G150" s="9"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="B151" s="27" t="s">
         <v>172</v>
       </c>
@@ -8322,7 +8918,7 @@
       <c r="F151" s="8"/>
       <c r="G151" s="9"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" s="3" t="s">
         <v>8</v>
       </c>
@@ -8335,7 +8931,7 @@
       <c r="F152" s="8"/>
       <c r="G152" s="9"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="B153" s="26" t="s">
         <v>174</v>
       </c>
@@ -8345,7 +8941,7 @@
       <c r="F153" s="8"/>
       <c r="G153" s="9"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="B154" s="26" t="s">
         <v>175</v>
       </c>
@@ -8355,7 +8951,7 @@
       <c r="F154" s="8"/>
       <c r="G154" s="9"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="B155" s="26" t="s">
         <v>176</v>
       </c>
@@ -8365,7 +8961,7 @@
       <c r="F155" s="8"/>
       <c r="G155" s="9"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="B156" s="26" t="s">
         <v>177</v>
       </c>
@@ -8375,7 +8971,7 @@
       <c r="F156" s="8"/>
       <c r="G156" s="9"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="B157" s="26" t="s">
         <v>178</v>
       </c>
@@ -8385,7 +8981,7 @@
       <c r="F157" s="8"/>
       <c r="G157" s="9"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="B158" s="26" t="s">
         <v>179</v>
       </c>
@@ -8395,7 +8991,7 @@
       <c r="F158" s="8"/>
       <c r="G158" s="9"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="B159" s="26" t="s">
         <v>180</v>
       </c>
@@ -8405,7 +9001,7 @@
       <c r="F159" s="8"/>
       <c r="G159" s="9"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="B160" s="26" t="s">
         <v>181</v>
       </c>
@@ -8415,7 +9011,7 @@
       <c r="F160" s="8"/>
       <c r="G160" s="9"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:7">
       <c r="B161" s="26" t="s">
         <v>182</v>
       </c>
@@ -8425,7 +9021,7 @@
       <c r="F161" s="8"/>
       <c r="G161" s="9"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:7">
       <c r="B162" s="26" t="s">
         <v>183</v>
       </c>
@@ -8435,7 +9031,7 @@
       <c r="F162" s="8"/>
       <c r="G162" s="9"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:7">
       <c r="B163" s="26" t="s">
         <v>184</v>
       </c>
@@ -8445,7 +9041,7 @@
       <c r="F163" s="8"/>
       <c r="G163" s="9"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:7">
       <c r="B164" s="26" t="s">
         <v>185</v>
       </c>
@@ -8455,7 +9051,7 @@
       <c r="F164" s="8"/>
       <c r="G164" s="9"/>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:7">
       <c r="B165" s="26" t="s">
         <v>186</v>
       </c>
@@ -8465,7 +9061,7 @@
       <c r="F165" s="8"/>
       <c r="G165" s="9"/>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:7">
       <c r="B166" s="26" t="s">
         <v>187</v>
       </c>
@@ -8475,7 +9071,7 @@
       <c r="F166" s="8"/>
       <c r="G166" s="9"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:7">
       <c r="B167" s="26" t="s">
         <v>188</v>
       </c>
@@ -8485,7 +9081,7 @@
       <c r="F167" s="8"/>
       <c r="G167" s="9"/>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:7">
       <c r="B168" s="26" t="s">
         <v>189</v>
       </c>
@@ -8495,7 +9091,7 @@
       <c r="F168" s="8"/>
       <c r="G168" s="9"/>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:7">
       <c r="B169" s="26" t="s">
         <v>190</v>
       </c>
@@ -8505,7 +9101,7 @@
       <c r="F169" s="8"/>
       <c r="G169" s="9"/>
     </row>
-    <row r="170" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7" ht="13" thickBot="1">
       <c r="B170" s="29" t="s">
         <v>191</v>
       </c>
@@ -8515,426 +9111,426 @@
       <c r="F170" s="11"/>
       <c r="G170" s="12"/>
     </row>
-    <row r="171" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7" ht="13" thickBot="1">
       <c r="B171" s="33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:7">
       <c r="B172"/>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:7">
       <c r="B173"/>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:7">
       <c r="B174"/>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:7">
       <c r="B175"/>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:7">
       <c r="B176"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2">
       <c r="B177"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:2">
       <c r="B178"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:2">
       <c r="B179"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:2">
       <c r="B180"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:2">
       <c r="B181"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:2">
       <c r="B182"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:2">
       <c r="B183"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:2">
       <c r="B184"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:2">
       <c r="B185"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:2">
       <c r="B186"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:2">
       <c r="B187"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:2">
       <c r="B188"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:2">
       <c r="B189"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:2">
       <c r="B190"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:2">
       <c r="B191"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:2">
       <c r="B192"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:2">
       <c r="B193"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:2">
       <c r="B194"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:2">
       <c r="B195"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:2">
       <c r="B196"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:2">
       <c r="B197"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:2">
       <c r="B198"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:2">
       <c r="B199"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:2">
       <c r="B200"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:2">
       <c r="B201"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:2">
       <c r="B202"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:2">
       <c r="B203"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:2">
       <c r="B204"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:2">
       <c r="B205"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:2">
       <c r="B206"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:2">
       <c r="B207"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:2">
       <c r="B208"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2">
       <c r="B209"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:2">
       <c r="B210"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:2">
       <c r="B211"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:2">
       <c r="B212"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:2">
       <c r="B213"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:2">
       <c r="B214"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:2">
       <c r="B215"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:2">
       <c r="B216"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:2">
       <c r="B217"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:2">
       <c r="B218"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:2">
       <c r="B219"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:2">
       <c r="B220"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:2">
       <c r="B221"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:2">
       <c r="B222"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:2">
       <c r="B223"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:2">
       <c r="B224"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:2">
       <c r="B225"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:2">
       <c r="B226"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:2">
       <c r="B227"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:2">
       <c r="B228"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:2">
       <c r="B229"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:2">
       <c r="B230"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:2">
       <c r="B231"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:2">
       <c r="B232"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:2">
       <c r="B233"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:2">
       <c r="B234"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:2">
       <c r="B235"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:2">
       <c r="B236"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:2">
       <c r="B237"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:2">
       <c r="B238"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:2">
       <c r="B239"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:2">
       <c r="B240"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:2">
       <c r="B241"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:2">
       <c r="B242"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:2">
       <c r="B243"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:2">
       <c r="B244"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:2">
       <c r="B245"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:2">
       <c r="B246"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:2">
       <c r="B247"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:2">
       <c r="B248"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:2">
       <c r="B249"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:2">
       <c r="B250"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:2">
       <c r="B251"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:2">
       <c r="B252"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:2">
       <c r="B253"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:2">
       <c r="B254"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:2">
       <c r="B255"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:2">
       <c r="B256"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:2">
       <c r="B257"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:2">
       <c r="B258"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:2">
       <c r="B259"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:2">
       <c r="B260"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:2">
       <c r="B261"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:2">
       <c r="B262"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:2">
       <c r="B263"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:2">
       <c r="B264"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:2">
       <c r="B265"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:2">
       <c r="B266"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:2">
       <c r="B267"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:2">
       <c r="B268"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:2">
       <c r="B269"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:2">
       <c r="B270"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:2">
       <c r="B271"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:2">
       <c r="B272"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:2">
       <c r="B273"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:2">
       <c r="B274"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:2">
       <c r="B275"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:2">
       <c r="B276"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:2">
       <c r="B277"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:2">
       <c r="B278"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:2">
       <c r="B279"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:2">
       <c r="B280"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:2">
       <c r="B281"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:2">
       <c r="B282"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:2">
       <c r="B283"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:2">
       <c r="B284"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:2">
       <c r="B285"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:2">
       <c r="B286"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:2">
       <c r="B287"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:2">
       <c r="B288"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:2">
       <c r="B289"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:2">
       <c r="B290"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:2">
       <c r="B291"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:2">
       <c r="B292"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:2">
       <c r="B293"/>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:2">
       <c r="B294"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:2">
       <c r="B295"/>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:2">
       <c r="B296"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:2">
       <c r="B297"/>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:2">
       <c r="B298"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:2">
       <c r="B299"/>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:2">
       <c r="B300"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:2">
       <c r="B301"/>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:2">
       <c r="B302"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:2">
       <c r="B303"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:2">
       <c r="B304"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:2">
       <c r="B305"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:2">
       <c r="B306"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:2">
       <c r="B307"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:2">
       <c r="B308"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:2">
       <c r="B309"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:2">
       <c r="B310"/>
     </row>
   </sheetData>
